--- a/RUDN/Importance/Varible_muatal_in_Australia and New Zealand.xlsx
+++ b/RUDN/Importance/Varible_muatal_in_Australia and New Zealand.xlsx
@@ -49,27 +49,27 @@
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
     <t>Employment in services, female (% of female employment)</t>
   </si>
   <si>
@@ -148,24 +148,24 @@
     <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among pregnant women (%)</t>
   </si>
   <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
     <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
   </si>
   <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -181,6 +181,9 @@
     <t>Employment in agriculture, female (% of female employment)</t>
   </si>
   <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
   </si>
   <si>
@@ -190,9 +193,6 @@
     <t>Population ages 50-54, female (% of female population)</t>
   </si>
   <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -217,57 +217,57 @@
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
   </si>
   <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
   </si>
   <si>
     <t>Immunization, HepB3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
     <t>Population ages 60-64, male (% of male population)</t>
   </si>
   <si>
@@ -292,30 +292,33 @@
     <t>Population, male (% of total)</t>
   </si>
   <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
+    <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
     <t>Start-up procedures to register a business, male (number)</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -325,9 +328,6 @@
     <t>Age population, age 25, female, interpolated</t>
   </si>
   <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Male population 75-79</t>
   </si>
   <si>
@@ -340,24 +340,24 @@
     <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
   </si>
   <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
     <t>Female population 55-59</t>
   </si>
   <si>
     <t>Age population, age 04, female, interpolated</t>
   </si>
   <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
   </si>
   <si>
     <t>Employment in agriculture, male (% of male employment)</t>
   </si>
   <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
     <t>Number of neonatal deaths</t>
   </si>
   <si>
@@ -418,15 +418,18 @@
     <t>Population ages 20-24, male (% of male population)</t>
   </si>
   <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
     <t>Female population 50-54</t>
   </si>
   <si>
+    <t>Years</t>
+  </si>
+  <si>
     <t>Age population, age 05, female, interpolated</t>
   </si>
   <si>
@@ -439,9 +442,6 @@
     <t>Age population, age 23, male, interpolated</t>
   </si>
   <si>
-    <t>Years</t>
-  </si>
-  <si>
     <t>Age population, age 06, male, interpolated</t>
   </si>
   <si>
@@ -460,6 +460,9 @@
     <t>Total bilateral ODA commitments (current US$)</t>
   </si>
   <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
     <t>Employers, male (% of male employment)</t>
   </si>
   <si>
@@ -469,15 +472,15 @@
     <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
     <t>Net ODA provided, total (current US$)</t>
   </si>
   <si>
     <t>Age population, age 01, male, interpolated</t>
   </si>
   <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Bilateral ODA commitments that is untied (current US$)</t>
   </si>
   <si>
@@ -511,168 +514,165 @@
     <t>Age population, age 0, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
     <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (current US$)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
   </si>
   <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>Population, male</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Population, total</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (current US$)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
     <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
@@ -688,15 +688,15 @@
     <t>Total bilateral sector allocable ODA commitments (current US$)</t>
   </si>
   <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
     <t>Population ages 0-14, female</t>
   </si>
   <si>
     <t>Population ages 0-14, male</t>
   </si>
   <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
     <t>Female population 40-44</t>
   </si>
   <si>
@@ -715,21 +715,21 @@
     <t>Age population, age 19, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
     <t>Female population 35-39</t>
   </si>
   <si>
-    <t>Age population, age 17, female, interpolated</t>
+    <t>Male population 40-44</t>
   </si>
   <si>
     <t>Age population, age 17, male, interpolated</t>
   </si>
   <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 09, female, interpolated</t>
   </si>
   <si>
@@ -745,195 +745,195 @@
     <t>Male population 45-49</t>
   </si>
   <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
     <t>Tertiary education, academic staff (% female)</t>
   </si>
   <si>
     <t>Female share of employment in senior and middle management (%)</t>
   </si>
   <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
     <t>People practicing open defecation, urban (% of urban population)</t>
   </si>
   <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
     <t>People using safely managed drinking water services (% of population)</t>
   </si>
   <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
     <t>Improved sanitation facilities (% of population with access)</t>
   </si>
   <si>
@@ -949,45 +949,51 @@
     <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
+    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
     <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
   </si>
   <si>
-    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
     <t>Inflation, consumer prices (annual %)</t>
   </si>
   <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
     <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
     <t>Rural population growth (annual %)</t>
   </si>
   <si>
     <t>Wage and salaried workers, female (% of female employment)</t>
   </si>
   <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
     <t>Prevalence of overweight, male (% of male adults)</t>
   </si>
   <si>
@@ -997,39 +1003,33 @@
     <t>Prevalence of obesity, male (% of male population ages 18+)</t>
   </si>
   <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
   </si>
   <si>
     <t>Health expenditure, total (% of GDP)</t>
   </si>
   <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
     <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
     <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
     <t>Internet users (per 100 people)</t>
   </si>
   <si>
@@ -1039,12 +1039,12 @@
     <t>Gross graduation ratio, tertiary, male (%)</t>
   </si>
   <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
     <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
   </si>
   <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
     <t>Births attended by skilled health staff (% of total)</t>
   </si>
   <si>
@@ -1057,27 +1057,27 @@
     <t>Tuberculosis treatment success rate (% of new cases)</t>
   </si>
   <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
     <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
   </si>
   <si>
     <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
   </si>
   <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
     <t>School enrollment, secondary, male (% gross)</t>
   </si>
   <si>
@@ -1105,13 +1105,13 @@
     <t>Forest area (% of land area)</t>
   </si>
   <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
     <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
   </si>
   <si>
     <t>Proportion of women in ministerial level positions (%)</t>
@@ -1512,7 +1512,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.338579769125098</v>
+        <v>1.331436911982241</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1560,7 +1560,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.004665370032128</v>
+        <v>1.001788385905144</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1568,7 +1568,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.004211855292898</v>
+        <v>0.9915701319368895</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1576,7 +1576,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9929165038189758</v>
+        <v>0.9831276888941594</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1584,7 +1584,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9831276888941594</v>
+        <v>0.9645585522467381</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1592,7 +1592,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9645585522467381</v>
+        <v>0.959469791800835</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1600,7 +1600,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.959469791800835</v>
+        <v>0.9579391795559367</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1616,7 +1616,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9579391795559367</v>
+        <v>0.9462753473563901</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1624,7 +1624,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9462753473563901</v>
+        <v>0.9452974561999283</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1840,7 +1840,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.7385501360597506</v>
+        <v>0.7295584865536719</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1848,7 +1848,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.7295584865536719</v>
+        <v>0.728327917801818</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1856,7 +1856,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.728327917801818</v>
+        <v>0.7252676843844423</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1864,7 +1864,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.7252676843844423</v>
+        <v>0.7239668027264177</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1880,7 +1880,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.7224156294108144</v>
+        <v>0.7159221229173083</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1928,7 +1928,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.6720965499633074</v>
+        <v>0.6726247311167648</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1936,7 +1936,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.6707325369921517</v>
+        <v>0.6720965499633074</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1944,7 +1944,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.6701125220864226</v>
+        <v>0.6707325369921517</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1952,7 +1952,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.6674042717208857</v>
+        <v>0.6701125220864226</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2024,7 +2024,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.6226676973199041</v>
+        <v>0.6142389313914032</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2032,7 +2032,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.6220118368896081</v>
+        <v>0.6127057423582138</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2040,7 +2040,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.6142389313914032</v>
+        <v>0.6116132755511965</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2048,7 +2048,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.6127057423582138</v>
+        <v>0.6116019354508369</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2056,7 +2056,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.6117140461459294</v>
+        <v>0.6115333036857751</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2064,7 +2064,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.6116019354508369</v>
+        <v>0.6103467917849774</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2072,7 +2072,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.6115333036857751</v>
+        <v>0.6022503796751437</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2080,7 +2080,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.6103467917849774</v>
+        <v>0.5988985032621095</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2088,7 +2088,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.5988985032621095</v>
+        <v>0.5923001063275779</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2096,7 +2096,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.5923001063275779</v>
+        <v>0.5869881068191494</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2104,7 +2104,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.5869881068191494</v>
+        <v>0.5783275213728496</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2112,7 +2112,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.5783275213728496</v>
+        <v>0.5735691386000383</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2120,7 +2120,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.5757835375788667</v>
+        <v>0.5722121090074381</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2128,7 +2128,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5735691386000383</v>
+        <v>0.5653342187579751</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2136,7 +2136,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.5653342187579751</v>
+        <v>0.5636604424200566</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2144,7 +2144,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.5636604424200566</v>
+        <v>0.5633710346989269</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2152,7 +2152,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.5633710346989269</v>
+        <v>0.5503653399968029</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2224,7 +2224,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.5242437783185185</v>
+        <v>0.5197018216757228</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2232,7 +2232,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.5197018216757228</v>
+        <v>0.5181243317053745</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2240,7 +2240,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.5181243317053745</v>
+        <v>0.5173174996485426</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2248,7 +2248,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.5173174996485426</v>
+        <v>0.5170511380431722</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2256,7 +2256,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.5138297175893318</v>
+        <v>0.5167992606697225</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2264,7 +2264,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.5083931293851631</v>
+        <v>0.5138297175893318</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2272,7 +2272,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.5083910094720523</v>
+        <v>0.5135474164404343</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2288,7 +2288,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.5032320373750552</v>
+        <v>0.5083910094720523</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2296,7 +2296,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.5020161343471774</v>
+        <v>0.5032320373750552</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2304,7 +2304,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.4994726460894032</v>
+        <v>0.5020161343471774</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2312,7 +2312,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.4987131800836413</v>
+        <v>0.4994726460894032</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2352,7 +2352,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.484942632452247</v>
+        <v>0.4853551867513557</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2360,7 +2360,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.4835597891051178</v>
+        <v>0.484942632452247</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2368,7 +2368,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.4784327806278219</v>
+        <v>0.4835597891051178</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2376,7 +2376,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.4782796525749813</v>
+        <v>0.4804232139622406</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2384,7 +2384,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.4765593877299932</v>
+        <v>0.4784327806278219</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2392,7 +2392,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.4762069441209704</v>
+        <v>0.4782796525749813</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2584,7 +2584,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.4337697973508399</v>
+        <v>0.4354047695215273</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2592,7 +2592,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.4336504117853031</v>
+        <v>0.4337697973508399</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2600,7 +2600,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.4317564337303341</v>
+        <v>0.4336504117853031</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2608,7 +2608,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.431517684384441</v>
+        <v>0.4317564337303341</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2616,7 +2616,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.4296649736031599</v>
+        <v>0.431517684384441</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2672,7 +2672,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.4053268650006208</v>
+        <v>0.4057801137151482</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2680,7 +2680,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.4040934075641567</v>
+        <v>0.4053268650006208</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2688,7 +2688,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.4009891851059422</v>
+        <v>0.4040934075641567</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2696,7 +2696,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.3998277327627673</v>
+        <v>0.4009891851059422</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2720,7 +2720,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.3964926870264296</v>
+        <v>0.3972583170686284</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2728,7 +2728,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.395071293473765</v>
+        <v>0.3964926870264296</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2736,7 +2736,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.3931119433001289</v>
+        <v>0.395071293473765</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2744,7 +2744,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.3910588376755948</v>
+        <v>0.3931119433001289</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2752,7 +2752,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.3883563318480894</v>
+        <v>0.3910588376755948</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2760,7 +2760,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.3846128109149953</v>
+        <v>0.3883563318480894</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2768,7 +2768,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.3831656396038245</v>
+        <v>0.3846128109149953</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2776,7 +2776,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.3831249065273776</v>
+        <v>0.3831656396038245</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2784,7 +2784,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.3829740653051079</v>
+        <v>0.3831249065273776</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2792,7 +2792,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.3814605986130699</v>
+        <v>0.3829740653051079</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2800,7 +2800,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.3791779606161461</v>
+        <v>0.3814605986130699</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2808,7 +2808,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.3741529152342351</v>
+        <v>0.3791779606161461</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2856,7 +2856,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.3676784723102122</v>
+        <v>0.365644272082458</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2864,7 +2864,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.365644272082458</v>
+        <v>0.3651269322794031</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2872,7 +2872,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.3651269322794031</v>
+        <v>0.3631335883217739</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2880,7 +2880,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.3631335883217739</v>
+        <v>0.3622855276522849</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2888,7 +2888,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.3622855276522849</v>
+        <v>0.3580806055902201</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2896,7 +2896,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.3580806055902201</v>
+        <v>0.3568428552453264</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2904,7 +2904,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.3568428552453264</v>
+        <v>0.3533499050349398</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2912,7 +2912,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.3533499050349398</v>
+        <v>0.3518868985036563</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2920,7 +2920,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.3518868985036563</v>
+        <v>0.3492580789105504</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2928,7 +2928,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.3492580789105504</v>
+        <v>0.347660569277326</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2936,7 +2936,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.347660569277326</v>
+        <v>0.3473968449064593</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2944,7 +2944,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.3473968449064593</v>
+        <v>0.3443562347229916</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2952,7 +2952,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.3445464215203218</v>
+        <v>0.3440385996944995</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2960,7 +2960,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.3443562347229916</v>
+        <v>0.3395823379848093</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2968,7 +2968,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.3440385996944995</v>
+        <v>0.3385893825275683</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2976,7 +2976,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.3395823379848093</v>
+        <v>0.3356241325090239</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2984,7 +2984,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.3385893825275683</v>
+        <v>0.3356007045388902</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2992,7 +2992,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.3356007045388902</v>
+        <v>0.3346206330231052</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3000,7 +3000,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.3346206330231052</v>
+        <v>0.3328791205673065</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3008,7 +3008,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.3328791205673065</v>
+        <v>0.3287519976901834</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3016,7 +3016,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.3287519976901834</v>
+        <v>0.3275885777767638</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3024,7 +3024,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.3275885777767638</v>
+        <v>0.3270714894238171</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3032,7 +3032,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.3270714894238171</v>
+        <v>0.3245586711754289</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3040,7 +3040,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.3245586711754289</v>
+        <v>0.3234396513064084</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3048,7 +3048,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.3234396513064084</v>
+        <v>0.3206930923098497</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3064,7 +3064,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.3206930923098497</v>
+        <v>0.3205084555180704</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3072,7 +3072,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.3205084555180704</v>
+        <v>0.3202782826306112</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3080,7 +3080,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.3202782826306112</v>
+        <v>0.3173365282389993</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3088,7 +3088,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.3173365282389993</v>
+        <v>0.316741290143761</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3096,7 +3096,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.316741290143761</v>
+        <v>0.3161638913520779</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3104,7 +3104,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.3161638913520779</v>
+        <v>0.3156630878838371</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3120,7 +3120,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.3156630878838371</v>
+        <v>0.3141916076833655</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3128,7 +3128,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.3141916076833655</v>
+        <v>0.3137650996675707</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3136,7 +3136,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.3137650996675707</v>
+        <v>0.3039343054617774</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3160,7 +3160,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.2994700197474918</v>
+        <v>0.2973667163049023</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3168,7 +3168,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.2973667163049023</v>
+        <v>0.2954922019303874</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3176,7 +3176,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.2954922019303874</v>
+        <v>0.2923715663310376</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3184,7 +3184,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.2923715663310376</v>
+        <v>0.2922302394039968</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3224,7 +3224,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.276754048927806</v>
+        <v>0.2734427236309096</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3232,7 +3232,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.2734427236309096</v>
+        <v>0.2707368977107978</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3272,7 +3272,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.2548147633067976</v>
+        <v>0.2603092688013031</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3432,7 +3432,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.2348034254383167</v>
+        <v>0.2325509764891622</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3464,7 +3464,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.2325509764891622</v>
+        <v>0.2298037237419095</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3696,7 +3696,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.2298037237419095</v>
+        <v>0.2248982621400197</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3712,7 +3712,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.2248982621400197</v>
+        <v>0.2241332037856754</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3720,7 +3720,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.2241332037856754</v>
+        <v>0.2212870420109425</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3864,7 +3864,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.2212870420109425</v>
+        <v>0.2209725747321896</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3872,7 +3872,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.2209725747321896</v>
+        <v>0.2044604549167748</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4048,7 +4048,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.09546194507239947</v>
+        <v>0.1005020730116879</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4056,7 +4056,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.09226031476993013</v>
+        <v>0.09546194507239947</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4072,7 +4072,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.07670857542617382</v>
+        <v>0.07274032145791942</v>
       </c>
     </row>
     <row r="326" spans="1:2">
